--- a/Java Week 5.xlsx
+++ b/Java Week 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19A85F-2E0E-4ED9-BAB6-9357F3D8A533}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585377D-E346-441F-85F5-10060275AB7D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{5A83DCB1-A1D4-43D3-950D-4C73CEDBE1F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="6" activeTab="11" xr2:uid="{5A83DCB1-A1D4-43D3-950D-4C73CEDBE1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="SS 1-10" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,14 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,15 +104,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,18 +125,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,6 +865,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Sort </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>10,000 - 100,000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,34 +1639,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11480.999999999998</c:v>
+                  <c:v>1.1481000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45923.999999999993</c:v>
+                  <c:v>9.530000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103328.99999999999</c:v>
+                  <c:v>0.32677199999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183695.99999999997</c:v>
+                  <c:v>0.85204800000000025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>287025</c:v>
+                  <c:v>1.6044999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>413315.99999999994</c:v>
+                  <c:v>2.6704799999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562569</c:v>
+                  <c:v>4.3841279999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>734783.99999999988</c:v>
+                  <c:v>6.4677120000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>929960.99999999988</c:v>
+                  <c:v>9.7506989999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1148100</c:v>
+                  <c:v>13.266300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,6 +1864,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Quick Sort </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>1,000,000 - 10,000,000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12670,16 +12773,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12704,6 +12807,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898CFB42-149D-4B87-9BEB-DDF177910C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2286000"/>
+          <a:ext cx="1838325" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Iti is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> difficult to determine the relationship between the increase of size and the time taken as the size is so small. This could contribute to the anoomaly at size 5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 10 - 100.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12711,16 +12893,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12745,6 +12927,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2047875" cy="2876550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC24315-8381-416E-9C57-59240F56F7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152399" y="2381250"/>
+          <a:ext cx="2047875" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> for size 1000- 10,000. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>There still is no smooth curve, though there is still an increase in the size compared to time. After point 4 it appears to start increasing faster though this could be an anomaly. Or since the quick sort is resource heavy it could be start to drain heavily. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 100,000 - 1,000,000.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12753,15 +13006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12788,15 +13041,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12822,6 +13075,97 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E874FA-9409-4585-9059-F80EE0169CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="2457450"/>
+          <a:ext cx="2762250" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for size 10000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> - 100,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>The line appears to be much smoother, showing a definite increase with size and time. There is another graph comparing a similiar equation as used previously in the selection sort however this divides by 1, 000,000. There are some vauge similiarties such as finishing at roughly the same point, but the increase is more gradual for the squared graph. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See the next sheet for size 1,000,000 - 10,000,000.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12829,16 +13173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12863,6 +13207,95 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3680303" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED9C6DC-C521-4C21-BF10-7F3517ED3293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="2552700"/>
+          <a:ext cx="3680303" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for size 100,00 - 1,000,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> line is less smooth than before and may be affected</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> by the computer speed. It does become very resource heavy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>at these increased sizes and there is still some relationship </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>between increase of size and time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12902,6 +13335,93 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6CD227-3A7A-4343-831D-989E0C9119A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="2457450"/>
+          <a:ext cx="1666875" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> previous sheet for size 1 - 10. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>The corrolation between size and time taken is clearer, however these are still small sizes and there is an anomaly at size 3 however it is less sevre. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 100 - 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12945,6 +13465,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB40263-9044-4C5F-A7A2-10497CA5BF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="2486025"/>
+          <a:ext cx="1800225" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for size 10 - 100. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>Similiar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> anaylsis to the previous sheet, has an anomaly at size 3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 1000 - 10000.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12952,16 +13555,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12986,6 +13589,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA4A48A-E359-4186-8CEC-912343F617F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2457450"/>
+          <a:ext cx="1828800" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for size 100-1000. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>There</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> is now a much smoother curve with not significantly noticeable nomalies. There is an extra plot showing the average value for  the arrays at size 1000 multiplied by the square of difference in size of the arrays. There is an obvious similiarity between the two lines albeit the average is a bit faster as the sizes get bigger. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> See next sheet for size 10000 - 100000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12993,16 +13679,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13029,16 +13715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13063,6 +13749,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439B60CD-B1BF-4BC0-BB82-B9848B495E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="2457450"/>
+          <a:ext cx="1876425" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for  size 1000- 10000.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>As</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> can be seen in these graphs the increase in average is surprisngly smooth for one set of tests however could be smoother. It does increase much faster than the square plot. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13070,16 +13835,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13104,6 +13869,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978899DE-5200-465C-A923-04E9C761DF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2476500"/>
+          <a:ext cx="2438400" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The relationship</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> between times and size are not clear, this is probably due to the small sizes being used. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 10 - 100.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13112,15 +13956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
+      <xdr:colOff>300037</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13145,6 +13989,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09907708-9C3D-4DFA-A4A4-E6595CF01FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2476500"/>
+          <a:ext cx="1847850" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> previous sheet for size 1 - 10. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>If you do not take into account the very large anomaly then there may be a slight corraltion between size and times. However the sizes are still too small to tell a great difference. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See the next page for size 100 - 1000.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13153,15 +14080,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13186,6 +14113,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD0025A-F562-4148-92EA-91179877E56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="2590800"/>
+          <a:ext cx="2000250" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See the previous</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> sheet for size 10 - 100. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>The relationship between size and time is a bit clearer and there isn't as a significant anomaly as on the previous sheet. However it still isn't very smooth, it may become clearer as the sizes increase. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See the next sheet for size 1000 - 10000. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13193,16 +14203,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13225,6 +14235,91 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB6377E-9CA7-406D-B9D2-89E9F5137E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276224" y="2447925"/>
+          <a:ext cx="2276475" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>See previous sheet for size 100 - 1000. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> curve seems less clear compared to the previous sheet, there are a couple of major anomalies at size 2 and 8 and a slight one at 9. These make the relationship harder to dtermine.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>See next sheet for size 10,000 - 1,000,000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13527,9 +14622,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C96DF1-C2AC-4CBA-9942-A4097D689E9E}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -13962,6 +15057,9 @@
         <f t="shared" si="0"/>
         <v>4.7999999999999996E-3</v>
       </c>
+    </row>
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13974,7 +15072,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14418,7 +15516,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14503,8 +15601,8 @@
         <v>1.1480999999999999</v>
       </c>
       <c r="M2">
-        <f>(A2/1000)*(A2/1000)*L2</f>
-        <v>11480.999999999998</v>
+        <f>(A2/1000000)*(A2/1000000)*L2</f>
+        <v>1.1481000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -14546,8 +15644,8 @@
         <v>2.3824999999999998</v>
       </c>
       <c r="M3">
-        <f>(A3/1000)*(A3/1000)*L2</f>
-        <v>45923.999999999993</v>
+        <f t="shared" ref="M3:M11" si="1">(A3/1000000)*(A3/1000000)*L3</f>
+        <v>9.530000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -14589,8 +15687,8 @@
         <v>3.6307999999999994</v>
       </c>
       <c r="M4">
-        <f>(A4/1000)*(A4/1000)*L2</f>
-        <v>103328.99999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.32677199999999995</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -14632,8 +15730,8 @@
         <v>5.3253000000000004</v>
       </c>
       <c r="M5">
-        <f>(A5/1000)*(A5/1000)*L2</f>
-        <v>183695.99999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.85204800000000025</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -14675,8 +15773,8 @@
         <v>6.4179999999999993</v>
       </c>
       <c r="M6">
-        <f>(A6/1000)*(A6/1000)*L2</f>
-        <v>287025</v>
+        <f t="shared" si="1"/>
+        <v>1.6044999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -14718,8 +15816,8 @@
         <v>7.4179999999999993</v>
       </c>
       <c r="M7">
-        <f>(A7/1000)*(A7/1000)*L2</f>
-        <v>413315.99999999994</v>
+        <f t="shared" si="1"/>
+        <v>2.6704799999999995</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -14761,8 +15859,8 @@
         <v>8.9472000000000005</v>
       </c>
       <c r="M8">
-        <f>(A8/1000)*(A8/1000)*L2</f>
-        <v>562569</v>
+        <f t="shared" si="1"/>
+        <v>4.3841279999999996</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -14804,8 +15902,8 @@
         <v>10.105799999999999</v>
       </c>
       <c r="M9">
-        <f>(A9/1000)*(A9/1000)*L2</f>
-        <v>734783.99999999988</v>
+        <f t="shared" si="1"/>
+        <v>6.4677120000000006</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -14847,8 +15945,8 @@
         <v>12.037899999999999</v>
       </c>
       <c r="M10">
-        <f>(A10/1000)*(A10/1000)*L2</f>
-        <v>929960.99999999988</v>
+        <f t="shared" si="1"/>
+        <v>9.7506989999999991</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -14890,8 +15988,8 @@
         <v>13.266300000000001</v>
       </c>
       <c r="M11">
-        <f>(A11/1000)*(A11/1000)*L2</f>
-        <v>1148100</v>
+        <f t="shared" si="1"/>
+        <v>13.266300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14904,8 +16002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71A25E5-ED6D-4AE6-9168-0F04768C75D9}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15395,7 +16493,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16283,7 +17381,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16770,7 +17868,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16922,7 +18020,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Java Week 5.xlsx
+++ b/Java Week 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585377D-E346-441F-85F5-10060275AB7D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F19B6C9-8A89-4424-B55B-7E7DFFAA0848}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="6" activeTab="11" xr2:uid="{5A83DCB1-A1D4-43D3-950D-4C73CEDBE1F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="6" activeTab="10" xr2:uid="{5A83DCB1-A1D4-43D3-950D-4C73CEDBE1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="SS 1-10" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="15">
   <si>
     <t>Size</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>Equation</t>
   </si>
 </sst>
 </file>
@@ -884,23 +887,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Quick</a:t>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Quick Sort </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Sort </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>10,000 - 100,000</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -942,6 +950,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 10000-100,000'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1008,7 +1027,91 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE4C-4C41-BF3E-ECE8468D172B}"/>
+              <c16:uniqueId val="{00000000-9C7D-4B4D-875F-106ABD81CEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 10000-100,000'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QS 10000-100,000'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93333333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C7D-4B4D-875F-106ABD81CEAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1022,11 +1125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563035384"/>
-        <c:axId val="383351544"/>
+        <c:axId val="501208168"/>
+        <c:axId val="501209480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563035384"/>
+        <c:axId val="501208168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383351544"/>
+        <c:crossAx val="501209480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383351544"/>
+        <c:axId val="501209480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563035384"/>
+        <c:crossAx val="501208168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,6 +1242,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1218,11 +1352,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Quick</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Sort - Averages</a:t>
+              <a:t>Qucik Sort </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1230,9 +1360,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB"/>
               <a:t>100,000 - 1,000,000</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
@@ -1275,6 +1410,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 100,000 - 1,000,000'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1341,7 +1487,91 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0529-4ED4-B3D4-C7A1DA823814}"/>
+              <c16:uniqueId val="{00000000-054A-419E-A649-939B32CEB3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 100,000 - 1,000,000'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QS 100,000 - 1,000,000'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-054A-419E-A649-939B32CEB3E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1355,11 +1585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565363600"/>
-        <c:axId val="565364584"/>
+        <c:axId val="615182456"/>
+        <c:axId val="615178192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="565363600"/>
+        <c:axId val="615182456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565364584"/>
+        <c:crossAx val="615178192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="565364584"/>
+        <c:axId val="615178192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565363600"/>
+        <c:crossAx val="615182456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,6 +1702,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1551,7 +1812,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Quick Sort - Squared</a:t>
+              <a:t>Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Sort</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1559,12 +1824,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>100,000</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> - 1,000,000</a:t>
+              <a:t>1,000,000 - 10,000,000</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1608,334 +1869,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'QS 100,000 - 1,000,000'!$M$2:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 1,000,000 - 10,000,000'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.1481000000000002E-2</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.530000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32677199999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85204800000000025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6044999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6704799999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3841279999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4677120000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7506989999999991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.266300000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AC4-4707-87F1-38FE9EFC4F73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="592982752"/>
-        <c:axId val="592983736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="592982752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592983736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="592983736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592982752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Quick Sort </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>1,000,000 - 10,000,000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2002,7 +1946,91 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B538-4305-97CA-060620F7F5FB}"/>
+              <c16:uniqueId val="{00000000-3A96-4098-818D-E5FA2EE7907A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QS 1,000,000 - 10,000,000'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QS 1,000,000 - 10,000,000'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A96-4098-818D-E5FA2EE7907A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2016,11 +2044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594237696"/>
-        <c:axId val="594233104"/>
+        <c:axId val="615173272"/>
+        <c:axId val="496375992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="594237696"/>
+        <c:axId val="615173272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594233104"/>
+        <c:crossAx val="496375992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="594233104"/>
+        <c:axId val="496375992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594237696"/>
+        <c:crossAx val="615173272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2133,6 +2161,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3091,34 +3150,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0405000000000002</c:v>
+                  <c:v>2.0405000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1620000000000008</c:v>
+                  <c:v>0.31579600000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.364500000000003</c:v>
+                  <c:v>1.5644789999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.648000000000003</c:v>
+                  <c:v>4.8819200000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.012500000000003</c:v>
+                  <c:v>11.878424999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.458000000000013</c:v>
+                  <c:v>24.052968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.984500000000011</c:v>
+                  <c:v>44.438393999999988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.59200000000001</c:v>
+                  <c:v>75.769280000000037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.28050000000002</c:v>
+                  <c:v>121.519845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>204.05</c:v>
+                  <c:v>187.76849999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,34 +3604,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19572.099999999999</c:v>
+                  <c:v>1.9572100000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78288.399999999994</c:v>
+                  <c:v>33.649680000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176148.9</c:v>
+                  <c:v>188.95770000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>313153.59999999998</c:v>
+                  <c:v>643.39328000000012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>489302.5</c:v>
+                  <c:v>1653.452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>704595.6</c:v>
+                  <c:v>3581.8905599999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>959032.9</c:v>
+                  <c:v>6858.8259599999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1252614.3999999999</c:v>
+                  <c:v>12039.929600000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1585340.1</c:v>
+                  <c:v>19747.910970000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1957210</c:v>
+                  <c:v>31260.296999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,46 +5387,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8216,509 +8235,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12891,42 +12407,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3721893C-7FB9-4265-BCF6-28F94175712F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -12986,7 +12466,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>There still is no smooth curve, though there is still an increase in the size compared to time. After point 4 it appears to start increasing faster though this could be an anomaly. Or since the quick sort is resource heavy it could be start to drain heavily. </a:t>
+            <a:t>There still is no smooth curve, though there is still an increase in the size compared to time. After point 4 it appears to start increasing faster though this could be an anomaly. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I have made a formual which is the size of the array divided by 100,000 plus a third of the size divided by 100,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>. It roughly follows the increase, hopefully a larger size will show better results. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
@@ -12998,30 +12494,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC1A6B6-42D7-4FA0-8220-DF2F0D2CE199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64C4AC9-4CCE-453B-AE45-F1358C2D5378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13039,54 +12530,23 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FCA3D9-FFD8-45C3-9C6E-D0C0786E354D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13101,7 +12561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="2457450"/>
+          <a:off x="619125" y="2276475"/>
           <a:ext cx="2762250" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13152,7 +12612,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>The line appears to be much smoother, showing a definite increase with size and time. There is another graph comparing a similiar equation as used previously in the selection sort however this divides by 1, 000,000. There are some vauge similiarties such as finishing at roughly the same point, but the increase is more gradual for the squared graph. </a:t>
+            <a:t>The line appears to be much smoother, showing a definite increase with size and time. The formula gives a linear progression which closely mimics the increase given by the averages, this is closer to the line than the previous sheet. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
@@ -13166,30 +12626,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBB80B9-2EF5-41E6-A8BE-C5E499A7FE2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BD76CB-6766-46DA-BF01-606271CB4CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13207,6 +12662,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13296,6 +12756,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58B8E0D-E41A-4DB7-AC02-1F41D4A8FB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13752,15 +13248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13775,7 +13271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="2457450"/>
+          <a:off x="619125" y="2476500"/>
           <a:ext cx="1876425" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15069,15 +14565,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E533BC-A98B-452F-9A72-A35E92DBC817}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15114,8 +14610,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -15153,8 +14652,12 @@
         <f>SUM(B2:K2)/10</f>
         <v>0.33640000000000009</v>
       </c>
+      <c r="M2">
+        <f>(A2/ 100000) +((A2/100000)/3)</f>
+        <v>0.13333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20000</v>
       </c>
@@ -15192,8 +14695,12 @@
         <f t="shared" ref="L3:L11" si="0">SUM(B3:K3)/10</f>
         <v>0.39699999999999996</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="1">(A3/ 100000) +((A3/100000)/3)</f>
+        <v>0.26666666666666666</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30000</v>
       </c>
@@ -15231,8 +14738,12 @@
         <f t="shared" si="0"/>
         <v>0.4345</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40000</v>
       </c>
@@ -15270,8 +14781,12 @@
         <f t="shared" si="0"/>
         <v>0.41999999999999993</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50000</v>
       </c>
@@ -15309,8 +14824,12 @@
         <f t="shared" si="0"/>
         <v>0.60660000000000003</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60000</v>
       </c>
@@ -15348,8 +14867,12 @@
         <f t="shared" si="0"/>
         <v>0.73309999999999997</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70000</v>
       </c>
@@ -15387,8 +14910,12 @@
         <f t="shared" si="0"/>
         <v>0.8385999999999999</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80000</v>
       </c>
@@ -15426,8 +14953,12 @@
         <f t="shared" si="0"/>
         <v>1.0556000000000001</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666667</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90000</v>
       </c>
@@ -15465,8 +14996,12 @@
         <f t="shared" si="0"/>
         <v>0.96530000000000005</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>100000</v>
       </c>
@@ -15503,6 +15038,10 @@
       <c r="L11">
         <f t="shared" si="0"/>
         <v>1.1280000000000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -15515,8 +15054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A7EA13-3A1C-4927-9A77-9F66ECC275E7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15559,7 +15098,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -15601,8 +15140,8 @@
         <v>1.1480999999999999</v>
       </c>
       <c r="M2">
-        <f>(A2/1000000)*(A2/1000000)*L2</f>
-        <v>1.1481000000000002E-2</v>
+        <f>(A2/ 100000) +((A2/100000)/3)</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -15644,8 +15183,8 @@
         <v>2.3824999999999998</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="1">(A3/1000000)*(A3/1000000)*L3</f>
-        <v>9.530000000000001E-2</v>
+        <f t="shared" ref="M3:M11" si="1">(A3/ 100000) +((A3/100000)/3)</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -15688,7 +15227,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>0.32677199999999995</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -15731,7 +15270,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>0.85204800000000025</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -15774,7 +15313,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>1.6044999999999998</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -15817,7 +15356,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>2.6704799999999995</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -15860,7 +15399,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>4.3841279999999996</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -15903,7 +15442,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>6.4677120000000006</v>
+        <v>10.666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -15946,7 +15485,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>9.7506989999999991</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -15989,7 +15528,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>13.266300000000001</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -16002,8 +15541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71A25E5-ED6D-4AE6-9168-0F04768C75D9}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16049,7 +15588,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16091,8 +15630,8 @@
         <v>12.279599999999999</v>
       </c>
       <c r="M2">
-        <f>(A2/1000)*(A2/1000)*L2</f>
-        <v>12279599.999999998</v>
+        <f>(A2/ 100000) +((A2/100000)/3)</f>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16134,8 +15673,8 @@
         <v>25.735099999999999</v>
       </c>
       <c r="M3">
-        <f>(A3/1000)*(A3/1000)*L2</f>
-        <v>49118399.999999993</v>
+        <f t="shared" ref="M3:M11" si="1">(A3/ 100000) +((A3/100000)/3)</f>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -16177,8 +15716,8 @@
         <v>38.463100000000004</v>
       </c>
       <c r="M4">
-        <f>(A4/1000)*(A4/1000)*L2</f>
-        <v>110516399.99999999</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -16220,8 +15759,8 @@
         <v>52.38689999999999</v>
       </c>
       <c r="M5">
-        <f>(A5/1000)*(A5/1000)*L2</f>
-        <v>196473599.99999997</v>
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -16263,8 +15802,8 @@
         <v>60.960300000000004</v>
       </c>
       <c r="M6">
-        <f>(A6/1000)*(A6/1000)*L2</f>
-        <v>306989999.99999994</v>
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -16306,8 +15845,8 @@
         <v>79.957800000000006</v>
       </c>
       <c r="M7">
-        <f>(A7/1000)*(A7/1000)*L2</f>
-        <v>442065599.99999994</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -16349,8 +15888,8 @@
         <v>83.913500000000013</v>
       </c>
       <c r="M8">
-        <f>(A8/1000)*(A8/1000)*L2</f>
-        <v>601700399.99999988</v>
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -16392,8 +15931,8 @@
         <v>98.944400000000002</v>
       </c>
       <c r="M9">
-        <f>(A9/1000)*(A9/1000)*L2</f>
-        <v>785894399.99999988</v>
+        <f t="shared" si="1"/>
+        <v>106.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -16435,8 +15974,8 @@
         <v>123.84989999999998</v>
       </c>
       <c r="M10">
-        <f>(A10/1000)*(A10/1000)*L2</f>
-        <v>994647599.99999988</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -16478,8 +16017,8 @@
         <v>128.78870000000001</v>
       </c>
       <c r="M11">
-        <f>(A11/1000)*(A11/1000)*L2</f>
-        <v>1227959999.9999998</v>
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -17381,7 +16920,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17466,8 +17005,8 @@
         <v>2.0405000000000002</v>
       </c>
       <c r="M2">
-        <f>(A2/1000)*(A2/1000)*L2</f>
-        <v>2.0405000000000002</v>
+        <f>(A2/10000)*(A2/10000)*L2</f>
+        <v>2.0405000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -17509,8 +17048,8 @@
         <v>7.8948999999999998</v>
       </c>
       <c r="M3">
-        <f>(A3/1000)*(A3/1000)*L2</f>
-        <v>8.1620000000000008</v>
+        <f t="shared" ref="M3:M11" si="1">(A3/10000)*(A3/10000)*L3</f>
+        <v>0.31579600000000008</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -17552,8 +17091,8 @@
         <v>17.383099999999999</v>
       </c>
       <c r="M4">
-        <f>(A4/1000)*(A4/1000)*L2</f>
-        <v>18.364500000000003</v>
+        <f t="shared" si="1"/>
+        <v>1.5644789999999997</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -17595,8 +17134,8 @@
         <v>30.512</v>
       </c>
       <c r="M5">
-        <f>(A5/1000)*(A5/1000)*L2</f>
-        <v>32.648000000000003</v>
+        <f t="shared" si="1"/>
+        <v>4.8819200000000009</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -17638,8 +17177,8 @@
         <v>47.513699999999993</v>
       </c>
       <c r="M6">
-        <f>(A6/1000)*(A6/1000)*L2</f>
-        <v>51.012500000000003</v>
+        <f t="shared" si="1"/>
+        <v>11.878424999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -17681,8 +17220,8 @@
         <v>66.813800000000001</v>
       </c>
       <c r="M7">
-        <f>(A7/1000)*(A7/1000)*L2</f>
-        <v>73.458000000000013</v>
+        <f t="shared" si="1"/>
+        <v>24.052968</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -17724,8 +17263,8 @@
         <v>90.690599999999989</v>
       </c>
       <c r="M8">
-        <f>(A8/1000)*(A8/1000)*L2</f>
-        <v>99.984500000000011</v>
+        <f t="shared" si="1"/>
+        <v>44.438393999999988</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -17767,8 +17306,8 @@
         <v>118.38950000000003</v>
       </c>
       <c r="M9">
-        <f>(A9/1000)*(A9/1000)*L2</f>
-        <v>130.59200000000001</v>
+        <f t="shared" si="1"/>
+        <v>75.769280000000037</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -17810,8 +17349,8 @@
         <v>150.02449999999999</v>
       </c>
       <c r="M10">
-        <f>(A10/1000)*(A10/1000)*L2</f>
-        <v>165.28050000000002</v>
+        <f t="shared" si="1"/>
+        <v>121.519845</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -17853,8 +17392,8 @@
         <v>187.76849999999999</v>
       </c>
       <c r="M11">
-        <f>(A11/1000)*(A11/1000)*L2</f>
-        <v>204.05</v>
+        <f t="shared" si="1"/>
+        <v>187.76849999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17868,7 +17407,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17895,8 +17434,8 @@
         <v>195.721</v>
       </c>
       <c r="C2">
-        <f>(A2/1000)*(A2/1000)*B2</f>
-        <v>19572.099999999999</v>
+        <f>(A2/100000)*(A2/100000)*B2</f>
+        <v>1.9572100000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17907,8 +17446,8 @@
         <v>841.24199999999996</v>
       </c>
       <c r="C3">
-        <f>(A3/1000)*(A3/1000)*B2</f>
-        <v>78288.399999999994</v>
+        <f t="shared" ref="C3:C11" si="0">(A3/100000)*(A3/100000)*B3</f>
+        <v>33.649680000000004</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -17920,8 +17459,8 @@
         <v>2099.5300000000002</v>
       </c>
       <c r="C4">
-        <f>(A4/1000)*(A4/1000)*B2</f>
-        <v>176148.9</v>
+        <f t="shared" si="0"/>
+        <v>188.95770000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17932,8 +17471,8 @@
         <v>4021.2080000000001</v>
       </c>
       <c r="C5">
-        <f>(A5/1000)*(A5/1000)*B2</f>
-        <v>313153.59999999998</v>
+        <f t="shared" si="0"/>
+        <v>643.39328000000012</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17944,8 +17483,8 @@
         <v>6613.808</v>
       </c>
       <c r="C6">
-        <f>(A6/1000)*(A6/1000)*B2</f>
-        <v>489302.5</v>
+        <f t="shared" si="0"/>
+        <v>1653.452</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17956,8 +17495,8 @@
         <v>9949.6959999999999</v>
       </c>
       <c r="C7">
-        <f>(A7/1000)*(A7/1000)*B2</f>
-        <v>704595.6</v>
+        <f t="shared" si="0"/>
+        <v>3581.8905599999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17968,8 +17507,8 @@
         <v>13997.603999999999</v>
       </c>
       <c r="C8">
-        <f>(A8/1000)*(A8/1000)*B2</f>
-        <v>959032.9</v>
+        <f t="shared" si="0"/>
+        <v>6858.8259599999992</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17980,8 +17519,8 @@
         <v>18812.39</v>
       </c>
       <c r="C9">
-        <f>(A9/1000)*(A9/1000)*B2</f>
-        <v>1252614.3999999999</v>
+        <f t="shared" si="0"/>
+        <v>12039.929600000001</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -17993,8 +17532,8 @@
         <v>24380.136999999999</v>
       </c>
       <c r="C10">
-        <f>(A10/1000)*(A10/1000)*B2</f>
-        <v>1585340.1</v>
+        <f t="shared" si="0"/>
+        <v>19747.910970000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18005,8 +17544,8 @@
         <v>31260.296999999999</v>
       </c>
       <c r="C11">
-        <f>(A11/1000)*(A11/1000)*B2</f>
-        <v>1957210</v>
+        <f t="shared" si="0"/>
+        <v>31260.296999999999</v>
       </c>
     </row>
   </sheetData>
